--- a/Assets/Scripts/MG/Data/UpgradeExcelData.xlsx
+++ b/Assets/Scripts/MG/Data/UpgradeExcelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\HaveToTrade\Assets\Scripts\MG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50283206-3011-4C26-A9CC-761BBD04FC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04469E9A-C977-43CF-886E-0FCAE8365F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2550" windowWidth="15675" windowHeight="12450" xr2:uid="{31C4D12C-55D9-42A6-A5B1-09E8B55C2083}"/>
+    <workbookView xWindow="13620" yWindow="1695" windowWidth="15675" windowHeight="12450" xr2:uid="{31C4D12C-55D9-42A6-A5B1-09E8B55C2083}"/>
   </bookViews>
   <sheets>
     <sheet name="Carriage" sheetId="1" r:id="rId1"/>
@@ -74,99 +74,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신의 선물칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람의 창고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물 금고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡식 전용칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇살 바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가공품칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대지의 숨결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기 서늘칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤의 정원칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목초지 짐칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의류짐칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간의 짐칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기고칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별빛의 안식처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새벽빛 창고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가구운송칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기억의 창고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장인의 손길칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영원의 서고칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달빛 창고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀금속칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별빛의 품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀족의 짐칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심해의 진주함</t>
+    <t>들판의 바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들판의 선물칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들판의 통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들판의 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들판의 창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇살의 바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇살의 선물칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇살의 통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇살의 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇살의 창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지의 바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지의 선물칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지의 통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지의 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지의 창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의 선물칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의 통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의 창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 선물칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 창고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B866C5-0FE3-4E33-BBBA-0B4B49D95D43}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>190</v>
@@ -663,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>230</v>
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>270</v>
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>310</v>
@@ -732,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -755,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>120</v>
@@ -778,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>160</v>
@@ -801,7 +801,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>200</v>
@@ -824,7 +824,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>240</v>
@@ -847,7 +847,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>80</v>
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>120</v>
@@ -893,7 +893,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>160</v>
@@ -916,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>200</v>
@@ -939,7 +939,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>240</v>
@@ -962,7 +962,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>80</v>
